--- a/data_processed/20250915/BTCUSDQMOMENT_20250915.xlsx
+++ b/data_processed/20250915/BTCUSDQMOMENT_20250915.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>13.52297642088387</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.0965817948296492</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1586059440561261</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.6643603353787662</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.676061083464162</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -864,10 +872,18 @@
       <c r="H12" t="n">
         <v>9.158323151786888</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.1456272830621586</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.04396334041319992</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.5230178633592292</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.172877228109634</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -934,10 +950,18 @@
       <c r="H14" t="n">
         <v>8.166986038398656</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.08796947879703369</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.06173887961027817</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.3660329548470155</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.226536880081918</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1052,10 +1076,18 @@
       <c r="H17" t="n">
         <v>9.003855347563105</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.2364412865130047</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02468863966354203</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5286330827082543</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.977783767783527</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250915/BTCUSDQMOMENT_20250915.xlsx
+++ b/data_processed/20250915/BTCUSDQMOMENT_20250915.xlsx
@@ -1118,10 +1118,18 @@
       <c r="H18" t="n">
         <v>8.958770030864056</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.06439574632716669</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2820221037857273</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.05024023413823025</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.288968724969885</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>6.678315202598641</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.3127488043338543</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5765091068230044</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01146066641156172</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.873828640831355</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250915/BTCUSDQMOMENT_20250915.xlsx
+++ b/data_processed/20250915/BTCUSDQMOMENT_20250915.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.57436934395236</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.1390649750100463</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6440599939930639</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4936289468824919</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.423707911152657</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1202,10 +1210,18 @@
       <c r="H20" t="n">
         <v>6.499995497826918</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.1070944970656949</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6482476954050463</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1388475111057705</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.229431919465588</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
